--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C8C80E-0129-4522-B6C3-A6F24FA741CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C14D01-182F-4967-B7B8-AC07876D7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2A00C82-1C53-4A57-92E5-492500B0A79F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232778E9-871E-4E5B-B2C0-68EB33107160}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.msy_kbn_val" sheetId="2" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>KBN_NM</t>
   </si>
   <si>
-    <t>mysql/emarf : 2024/12/18 21:21:28</t>
+    <t>mysql/emarf : 2024/12/19 10:03:23</t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{7F185FE4-1F44-475D-95E5-039735BBC414}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{D1D5D16D-3C42-4473-A85B-275DBC7C0F4F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F647C1F1-DE07-437A-A0AA-91500C3E40B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C80B7E-D38F-4D8E-9304-A754F002E51E}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1060,7 +1060,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J15" xr:uid="{E72D0DBF-1DD3-4712-966C-3FFF3AFD1A0F}"/>
+  <autoFilter ref="A2:J15" xr:uid="{6DC15533-CB9C-40AB-8857-2B3DDD96DE18}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="263" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C14D01-182F-4967-B7B8-AC07876D7708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A62FB-6ABE-4478-9CA9-950C0C1EDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232778E9-871E-4E5B-B2C0-68EB33107160}"/>
   </bookViews>
@@ -589,7 +589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C80B7E-D38F-4D8E-9304-A754F002E51E}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/647282c8779b7a0a/git/exam/examcom/schema/mysql/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A62FB-6ABE-4478-9CA9-950C0C1EDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{463A62FB-6ABE-4478-9CA9-950C0C1EDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9198C60B-178E-4D72-94C4-DBD613309420}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232778E9-871E-4E5B-B2C0-68EB33107160}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{232778E9-871E-4E5B-B2C0-68EB33107160}"/>
   </bookViews>
   <sheets>
     <sheet name="emarf.msy_kbn_val" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>0</t>
   </si>
@@ -136,6 +136,30 @@
   </si>
   <si>
     <t>mysql/emarf : 2024/12/19 10:03:23</t>
+  </si>
+  <si>
+    <t>KENGEN_KB</t>
+  </si>
+  <si>
+    <t>権限なし</t>
+  </si>
+  <si>
+    <t>参照権限</t>
+  </si>
+  <si>
+    <t>出力権限</t>
+  </si>
+  <si>
+    <t>更新権限</t>
+  </si>
+  <si>
+    <t>作成権限</t>
+  </si>
+  <si>
+    <t>承認権限</t>
+  </si>
+  <si>
+    <t>否認権限</t>
   </si>
 </sst>
 </file>
@@ -587,33 +611,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C80B7E-D38F-4D8E-9304-A754F002E51E}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J15"/>
+      <selection activeCell="A16" sqref="A16:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -645,7 +669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -677,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -709,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -741,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -773,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -805,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -837,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -869,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -901,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -933,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -965,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1058,6 +1082,230 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>45649.423761574071</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7C6188-9DF7-4F41-ADDE-860EC6A93B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF25273-EB1D-41B4-AA39-864A1281C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
   </bookViews>
   <sheets>
     <sheet name="EMARF.MSY_KBN_VAL" sheetId="2" r:id="rId1"/>
@@ -46,18 +46,12 @@
     <t/>
   </si>
   <si>
-    <t>確定</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>STATUS_KB</t>
   </si>
   <si>
-    <t>未確定</t>
-  </si>
-  <si>
     <t>否認</t>
   </si>
   <si>
@@ -170,6 +164,17 @@
   </si>
   <si>
     <t>ローカル/XEPDB1：emarf : 2024/12/25 15:15:32</t>
+  </si>
+  <si>
+    <t>承認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -309,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,74 +613,74 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -702,15 +707,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -737,15 +742,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -772,15 +777,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -807,15 +812,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1</v>
@@ -842,15 +847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1</v>
@@ -877,15 +882,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1</v>
@@ -912,15 +917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1</v>
@@ -947,15 +952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1</v>
@@ -982,15 +987,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
@@ -1017,15 +1022,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1</v>
@@ -1052,15 +1057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1087,15 +1092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -1122,15 +1127,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>3</v>
@@ -1157,15 +1162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -1192,15 +1197,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -1227,15 +1232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
@@ -1262,15 +1267,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1297,15 +1302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
@@ -1332,15 +1337,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1367,15 +1372,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>1</v>
@@ -1402,15 +1407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>1</v>
@@ -1437,15 +1442,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>1</v>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF25273-EB1D-41B4-AA39-864A1281C994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89539B0F-A07E-4F70-9060-DD4EB6C35AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
   </bookViews>
   <sheets>
     <sheet name="EMARF.MSY_KBN_VAL" sheetId="2" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -623,9 +623,9 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -688,15 +688,11 @@
       <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
-        <v>45644.854571759257</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="6">
-        <v>45644.854571759257</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="3">
         <v>0</v>
       </c>
@@ -723,15 +719,11 @@
       <c r="E4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>45644.858252314814</v>
-      </c>
+      <c r="F4" s="6"/>
       <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
-        <v>45644.858252314814</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="3">
         <v>0</v>
       </c>
@@ -758,15 +750,11 @@
       <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>45644.852233796293</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
-        <v>45644.852233796293</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="3">
         <v>0</v>
       </c>
@@ -793,15 +781,11 @@
       <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
-        <v>45644.852546296293</v>
-      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
-        <v>45644.852546296293</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="3">
         <v>0</v>
       </c>
@@ -828,15 +812,11 @@
       <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -863,15 +843,11 @@
       <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -898,15 +874,11 @@
       <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -933,15 +905,11 @@
       <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -968,15 +936,11 @@
       <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="3">
         <v>0</v>
       </c>
@@ -1003,15 +967,11 @@
       <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="3">
         <v>0</v>
       </c>
@@ -1038,15 +998,11 @@
       <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="6">
-        <v>45649.423761574071</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="3">
         <v>0</v>
       </c>
@@ -1073,15 +1029,11 @@
       <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="6">
-        <v>45644.861932870372</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="6">
-        <v>45644.861932870372</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1108,15 +1060,11 @@
       <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
-        <v>45644.863263888888</v>
-      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="6">
-        <v>45644.863263888888</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1143,15 +1091,11 @@
       <c r="E16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
-        <v>45644.863553240742</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="6">
-        <v>45644.863553240742</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="3">
         <v>0</v>
       </c>
@@ -1178,15 +1122,11 @@
       <c r="E17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
-        <v>45644.86383101852</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="6">
-        <v>45644.86383101852</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1213,15 +1153,11 @@
       <c r="E18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
-        <v>45644.864004629628</v>
-      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="6">
-        <v>45644.864004629628</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1248,15 +1184,11 @@
       <c r="E19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
-        <v>45644.86445601852</v>
-      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="6">
-        <v>45644.86445601852</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="3">
         <v>0</v>
       </c>
@@ -1283,15 +1215,11 @@
       <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="6">
-        <v>45644.859178240738</v>
-      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="6">
-        <v>45644.859178240738</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1318,15 +1246,11 @@
       <c r="E21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="6">
-        <v>45644.859363425923</v>
-      </c>
+      <c r="F21" s="6"/>
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
-        <v>45644.859363425923</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1353,15 +1277,11 @@
       <c r="E22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
-        <v>45644.859548611108</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="6">
-        <v>45644.859548611108</v>
-      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1388,15 +1308,11 @@
       <c r="E23" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
-        <v>45651.634420949071</v>
-      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
-        <v>45651.634420949071</v>
-      </c>
+      <c r="H23" s="4"/>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1423,15 +1339,11 @@
       <c r="E24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
-        <v>45651.634715486114</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
-        <v>45651.634715486114</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1458,15 +1370,11 @@
       <c r="E25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
-        <v>45651.634870208334</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="4">
-        <v>45651.634870208334</v>
-      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="3">
         <v>0</v>
       </c>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89539B0F-A07E-4F70-9060-DD4EB6C35AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A987A869-AF0A-449B-BFCF-AD383E8929F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
   <si>
     <t>0</t>
   </si>
@@ -174,6 +174,37 @@
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TSUKA_KB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -270,7 +301,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,6 +326,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -314,9 +348,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +388,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +494,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,34 +644,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D164A69-DD8C-4608-AAA1-E240E6B0FCC7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K25"/>
+      <selection activeCell="A26" sqref="A26:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.75" style="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -672,11 +706,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -703,11 +737,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -734,11 +768,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -765,11 +799,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -796,11 +830,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -827,11 +861,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -858,11 +892,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -889,11 +923,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -920,11 +954,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -951,11 +985,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -982,11 +1016,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1013,11 +1047,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1044,11 +1078,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1075,11 +1109,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1106,11 +1140,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1137,11 +1171,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1168,11 +1202,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1199,11 +1233,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1230,11 +1264,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1261,11 +1295,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1292,11 +1326,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1323,11 +1357,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1354,11 +1388,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1382,6 +1416,99 @@
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\exam\examcom\schema\mysql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A987A869-AF0A-449B-BFCF-AD383E8929F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C2966-3A8F-419B-AAE0-F163DB4D5ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EMARF.MSY_KBN_VAL" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMARF.MSY_KBN_VAL!$A$2:$K$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EMARF.MSY_KBN_VAL!$A$2:$K$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">EMARF.MSY_KBN_VAL!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
   <si>
     <t>0</t>
   </si>
@@ -205,6 +205,10 @@
   </si>
   <si>
     <t>ドル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PULLDOWN_SB</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -348,9 +352,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,7 +392,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -494,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -644,34 +648,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D164A69-DD8C-4608-AAA1-E240E6B0FCC7}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:K28"/>
+      <selection activeCell="A20" sqref="A20:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -706,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -737,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -768,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -799,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -830,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -861,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -892,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -923,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -954,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -985,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1233,9 +1237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>2</v>
@@ -1264,9 +1268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>10</v>
@@ -1295,9 +1299,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>7</v>
@@ -1326,108 +1330,108 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="E25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>1</v>
@@ -1450,15 +1454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>1</v>
@@ -1481,15 +1485,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>1</v>
@@ -1512,8 +1516,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:K25" xr:uid="{71818BB4-CA0E-48C8-8CBB-D87C97E0EF3F}"/>
+  <autoFilter ref="A2:K28" xr:uid="{71818BB4-CA0E-48C8-8CBB-D87C97E0EF3F}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/examcom/schema/mysql/msy_kbn_val.xlsx
+++ b/examcom/schema/mysql/msy_kbn_val.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiyuki\git\exam\examcom\schema\mysql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C2966-3A8F-419B-AAE0-F163DB4D5ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3995C1B-A559-4678-AFA6-4E42A729CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{24B9CAED-1C66-443E-A00B-C7123E72E340}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:K22"/>
+      <selection activeCell="A3" sqref="A3:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
